--- a/InfNst_SobotaJakub200816_2.xlsx
+++ b/InfNst_SobotaJakub200816_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="17250"/>
+    <workbookView windowWidth="18345" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="2 projekt" sheetId="4" r:id="rId1"/>
@@ -2102,7 +2102,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>

--- a/InfNst_SobotaJakub200816_2.xlsx
+++ b/InfNst_SobotaJakub200816_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="17700"/>
+    <workbookView windowWidth="9600" windowHeight="6470"/>
   </bookViews>
   <sheets>
     <sheet name="2 projekt" sheetId="4" r:id="rId1"/>
@@ -2101,17 +2101,17 @@
   <sheetPr/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="79.4380952380952" style="2" customWidth="1"/>
+    <col min="1" max="1" width="79.4363636363636" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.2190476190476" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.2190476190476" style="4" customWidth="1"/>
-    <col min="6" max="6" width="52.8857142857143" customWidth="1"/>
+    <col min="3" max="3" width="10.2181818181818" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.2181818181818" style="4" customWidth="1"/>
+    <col min="6" max="6" width="52.8818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="45" customHeight="1" spans="1:6">
@@ -2144,13 +2144,15 @@
       <c r="B3" s="8">
         <v>1.1</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
       <c r="D3" s="9">
         <f>B3*C3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:4">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
@@ -2165,43 +2167,49 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" ht="15" spans="1:4">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="12">
         <v>0.3</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:4">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="12">
         <v>0.6</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:4">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="12">
         <v>0.6</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" ht="30" spans="1:4">
@@ -2211,10 +2219,12 @@
       <c r="B8" s="12">
         <v>0.7</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9" ht="45" spans="1:4">
@@ -2225,14 +2235,14 @@
         <v>0.7</v>
       </c>
       <c r="C9" s="11">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:4">
       <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
@@ -2240,14 +2250,14 @@
         <v>0.6</v>
       </c>
       <c r="C10" s="11">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:4">
       <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
@@ -2255,14 +2265,14 @@
         <v>0.5</v>
       </c>
       <c r="C11" s="11">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:4">
       <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
@@ -2275,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" ht="15" spans="1:4">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
@@ -2288,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" ht="15" spans="1:4">
       <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
@@ -2301,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" ht="15" spans="1:4">
       <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
@@ -2327,7 +2337,7 @@
       <c r="C16" s="16"/>
       <c r="D16" s="15">
         <f>SUM(D3:D15)</f>
-        <v>1.179</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2344,7 +2354,7 @@
       <c r="C18" s="19"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" ht="15" spans="1:4">
       <c r="A19" s="10" t="s">
         <v>20</v>
       </c>
@@ -2409,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" ht="15" spans="1:4">
       <c r="A24" s="20" t="s">
         <v>25</v>
       </c>
@@ -2422,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" ht="15" spans="1:4">
       <c r="A25" s="20" t="s">
         <v>26</v>
       </c>
@@ -2435,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" ht="15" spans="1:4">
       <c r="A26" s="20" t="s">
         <v>27</v>
       </c>
@@ -2448,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" ht="15" spans="1:4">
       <c r="A27" s="20" t="s">
         <v>28</v>
       </c>
@@ -2486,7 +2496,7 @@
       <c r="C29" s="23"/>
       <c r="D29" s="21">
         <f>D28+D16</f>
-        <v>1.179</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2503,7 +2513,7 @@
       <c r="A31" s="28"/>
       <c r="B31" s="25"/>
     </row>
-    <row r="32" ht="15.75" spans="1:4">
+    <row r="32" ht="15.5" spans="1:4">
       <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
@@ -2516,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15.75" spans="1:4">
+    <row r="33" ht="15.5" spans="1:4">
       <c r="A33" s="29" t="s">
         <v>34</v>
       </c>
@@ -2529,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="15.75" spans="1:4">
+    <row r="34" ht="15.5" spans="1:4">
       <c r="A34" s="29" t="s">
         <v>35</v>
       </c>
@@ -2542,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15.75" spans="1:4">
+    <row r="35" ht="15.5" spans="1:4">
       <c r="A35" s="29" t="s">
         <v>37</v>
       </c>
@@ -2573,7 +2583,7 @@
       <c r="C37" s="35"/>
       <c r="D37" s="36">
         <f>D29+D32+D33+D34+D35+D30</f>
-        <v>1.179</v>
+        <v>5.65</v>
       </c>
     </row>
   </sheetData>

--- a/InfNst_SobotaJakub200816_2.xlsx
+++ b/InfNst_SobotaJakub200816_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9600" windowHeight="6470"/>
+    <workbookView windowWidth="18345" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="2 projekt" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
-    <t>Tutaj wpisać: Imię, nazwisko, nr indeksu</t>
+    <t>Jakub Sobota 200816</t>
   </si>
   <si>
     <t xml:space="preserve">w kolumnie "realizacja" wartość 1 oznacza wykonanie całego punktu, wartość 0 oznacza brak realizacji danego punktu. Możliwe jest wpisanie wartości z przedziału &lt;0,1&gt; przy częściowej realizacji danego punktu </t>
@@ -2101,17 +2101,17 @@
   <sheetPr/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="79.4363636363636" style="2" customWidth="1"/>
+    <col min="1" max="1" width="79.4380952380952" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.2181818181818" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.2181818181818" style="4" customWidth="1"/>
-    <col min="6" max="6" width="52.8818181818182" customWidth="1"/>
+    <col min="3" max="3" width="10.2190476190476" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.2190476190476" style="4" customWidth="1"/>
+    <col min="6" max="6" width="52.8857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="45" customHeight="1" spans="1:6">
@@ -2152,7 +2152,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:4">
+    <row r="4" spans="1:4">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:4">
+    <row r="5" spans="1:4">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:4">
+    <row r="6" spans="1:4">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:4">
+    <row r="7" spans="1:4">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:4">
+    <row r="10" spans="1:4">
       <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:4">
+    <row r="11" spans="1:4">
       <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
@@ -2272,46 +2272,52 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:4">
+    <row r="12" spans="1:4">
       <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="12">
         <v>0.2</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="1:4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="8">
         <v>0.4</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="15" spans="1:4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="12">
         <v>0.5</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="15" spans="1:4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
@@ -2337,7 +2343,7 @@
       <c r="C16" s="16"/>
       <c r="D16" s="15">
         <f>SUM(D3:D15)</f>
-        <v>5.65</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2354,7 +2360,7 @@
       <c r="C18" s="19"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" ht="15" spans="1:4">
+    <row r="19" spans="1:4">
       <c r="A19" s="10" t="s">
         <v>20</v>
       </c>
@@ -2419,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:4">
+    <row r="24" spans="1:4">
       <c r="A24" s="20" t="s">
         <v>25</v>
       </c>
@@ -2432,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:4">
+    <row r="25" spans="1:4">
       <c r="A25" s="20" t="s">
         <v>26</v>
       </c>
@@ -2445,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="1:4">
+    <row r="26" spans="1:4">
       <c r="A26" s="20" t="s">
         <v>27</v>
       </c>
@@ -2458,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:4">
+    <row r="27" spans="1:4">
       <c r="A27" s="20" t="s">
         <v>28</v>
       </c>
@@ -2496,7 +2502,7 @@
       <c r="C29" s="23"/>
       <c r="D29" s="21">
         <f>D28+D16</f>
-        <v>5.65</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2513,7 +2519,7 @@
       <c r="A31" s="28"/>
       <c r="B31" s="25"/>
     </row>
-    <row r="32" ht="15.5" spans="1:4">
+    <row r="32" ht="15.75" spans="1:4">
       <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
@@ -2526,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15.5" spans="1:4">
+    <row r="33" ht="15.75" spans="1:4">
       <c r="A33" s="29" t="s">
         <v>34</v>
       </c>
@@ -2539,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="15.5" spans="1:4">
+    <row r="34" ht="15.75" spans="1:4">
       <c r="A34" s="29" t="s">
         <v>35</v>
       </c>
@@ -2552,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15.5" spans="1:4">
+    <row r="35" ht="15.75" spans="1:4">
       <c r="A35" s="29" t="s">
         <v>37</v>
       </c>
@@ -2583,7 +2589,7 @@
       <c r="C37" s="35"/>
       <c r="D37" s="36">
         <f>D29+D32+D33+D34+D35+D30</f>
-        <v>5.65</v>
+        <v>6.75</v>
       </c>
     </row>
   </sheetData>

--- a/InfNst_SobotaJakub200816_2.xlsx
+++ b/InfNst_SobotaJakub200816_2.xlsx
@@ -2102,7 +2102,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -2367,10 +2367,12 @@
       <c r="B19" s="12">
         <v>0.3</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
       <c r="D19" s="9">
         <f t="shared" ref="D19:D27" si="1">B19*C19</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20" ht="30" spans="1:4">
@@ -2380,10 +2382,12 @@
       <c r="B20" s="12">
         <v>0.3</v>
       </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
       <c r="D20" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="21" ht="30" spans="1:4">
@@ -2393,10 +2397,12 @@
       <c r="B21" s="12">
         <v>0.3</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
       <c r="D21" s="9">
         <f t="shared" ref="D21" si="2">B21*C21</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="22" ht="30" spans="1:4">
@@ -2406,10 +2412,12 @@
       <c r="B22" s="8">
         <v>0.7</v>
       </c>
-      <c r="C22" s="11"/>
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
       <c r="D22" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="23" ht="30" spans="1:4">
@@ -2419,10 +2427,12 @@
       <c r="B23" s="8">
         <v>0.6</v>
       </c>
-      <c r="C23" s="11"/>
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
       <c r="D23" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2432,7 +2442,9 @@
       <c r="B24" s="12">
         <v>0.2</v>
       </c>
-      <c r="C24" s="11"/>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
       <c r="D24" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2445,10 +2457,12 @@
       <c r="B25" s="12">
         <v>0.2</v>
       </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
       <c r="D25" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2458,10 +2472,12 @@
       <c r="B26" s="12">
         <v>0.2</v>
       </c>
-      <c r="C26" s="11"/>
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
       <c r="D26" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2471,10 +2487,12 @@
       <c r="B27" s="12">
         <v>0.2</v>
       </c>
-      <c r="C27" s="11"/>
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
       <c r="D27" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2488,7 +2506,7 @@
       <c r="C28" s="16"/>
       <c r="D28" s="21">
         <f>SUM(D19:D27)</f>
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:4">
@@ -2502,7 +2520,7 @@
       <c r="C29" s="23"/>
       <c r="D29" s="21">
         <f>D28+D16</f>
-        <v>6.75</v>
+        <v>9.55</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2589,7 +2607,7 @@
       <c r="C37" s="35"/>
       <c r="D37" s="36">
         <f>D29+D32+D33+D34+D35+D30</f>
-        <v>6.75</v>
+        <v>9.55</v>
       </c>
     </row>
   </sheetData>
